--- a/resources/data_example/standaardverslag_covid.xlsx
+++ b/resources/data_example/standaardverslag_covid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nlp-datau\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nlp-datau\resources\data_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>Blanco CT Thorax 
 COVID 19 Standaardverslag 
 1. Klachten {    }
@@ -44,6 +41,9 @@
  {   }
 Nevenbevindingen: { Dit is een hele vreemde bevinding   }
 DISCLAIMER: De interobserver variatie bij CORADS ....</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -366,20 +366,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.75">

--- a/resources/data_example/standaardverslag_covid.xlsx
+++ b/resources/data_example/standaardverslag_covid.xlsx
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+  <si>
+    <t>text</t>
+  </si>
   <si>
     <t>Blanco CT Thorax 
 COVID 19 Standaardverslag 
@@ -37,13 +40,44 @@
 Meegescande abdomen: 
 {    }
 Conclusie:
-Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS {    }), uitgebreidheid:
+Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS { CORADS-5   }), uitgebreidheid:
  {   }
 Nevenbevindingen: { Dit is een hele vreemde bevinding   }
 DISCLAIMER: De interobserver variatie bij CORADS ....</t>
   </si>
   <si>
-    <t>text</t>
+    <t>Blanco CT Thorax 
+COVID 19 Standaardverslag 
+1. Klachten {    }
+2. Duur van klachten: {    } dagen
+3. Matglas gebieden: Lokalisatie: (Perifeer / Centraal / Beide) {    }
+Consolidaties: (Perifeer / Centraal / Beide)   {    } ....
+4. Overige: Emfyseem, fibrose, coronairsclerose 1   {    }
+Nevenbevindingen:
+Meegescande abdomen: 
+{    }
+Conclusie:
+Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS { CORADS-2   }), uitgebreidheid:
+ {   }
+Nevenbevindingen: { Dit is een hele vreemde bevinding   }
+DISCLAIMER: De interobserver variatie bij CORADS ....</t>
+  </si>
+  <si>
+    <t>Blanco CT Thorax 
+COVID 19 Standaardverslag 
+1. Klachten {    }
+2. Duur van klachten: {    } dagen
+3. Matglas gebieden: Lokalisatie: (Perifeer / Centraal / Beide) {    }
+Consolidaties: (Perifeer / Centraal / Beide)   {    } ....
+4. Overige: Emfyseem, fibrose, coronairsclerose 1   {    }
+Nevenbevindingen:
+Meegescande abdomen: 
+{    }
+Conclusie:
+Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS { CORADS-3   }), uitgebreidheid:
+ {   }
+Nevenbevindingen: { Dit is een hele vreemde bevinding   }
+DISCLAIMER: De interobserver variatie bij CORADS ....</t>
   </si>
 </sst>
 </file>
@@ -364,26 +398,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A3" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data_example/standaardverslag_covid.xlsx
+++ b/resources/data_example/standaardverslag_covid.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>text</t>
   </si>
@@ -75,6 +75,23 @@
 {    }
 Conclusie:
 Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS { CORADS-3   }), uitgebreidheid:
+ {   }
+Nevenbevindingen: { Dit is een hele vreemde bevinding   }
+DISCLAIMER: De interobserver variatie bij CORADS ....</t>
+  </si>
+  <si>
+    <t>Blanco CT Thorax 
+COVID 19 Standaardverslag 
+1. Klachten {    }
+2. Duur van klachten: {    } dagen
+3. Matglas gebieden: Lokalisatie: (Perifeer / Centraal / Beide) {    }
+Consolidaties: (Perifeer / Centraal / Beide)   {    } ....
+4. Overige: Emfyseem, fibrose, coronairsclerose 1   {    }
+Nevenbevindingen:
+Meegescande abdomen: 
+{    }
+Conclusie:
+Beeld [niet passend bij / passend bij/onzeker passend bij] COVID-19 infect (CORADS { CO-RADS 6   }), uitgebreidheid:
  {   }
 Nevenbevindingen: { Dit is een hele vreemde bevinding   }
 DISCLAIMER: De interobserver variatie bij CORADS ....</t>
@@ -398,13 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="107.2265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -451,6 +471,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:1" ht="383.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
